--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/VERMONT_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/VERMONT_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C6">
@@ -462,7 +462,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C7">
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C16">
@@ -631,7 +631,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C27">
@@ -812,7 +812,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C32">
@@ -895,7 +895,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C38">
@@ -908,7 +908,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C39">
@@ -939,7 +939,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C41">
@@ -952,7 +952,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C42">
@@ -965,7 +965,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C43">
@@ -1048,7 +1048,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C49">
@@ -1336,7 +1336,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1380,7 +1380,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C73">
@@ -1445,7 +1445,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C78">
@@ -1453,41 +1453,6 @@
       </c>
       <c r="D78">
         <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/VERMONT_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/VERMONT_2024.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>La Independencia</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Pueblo Nuevo Solistahuacán</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Pedro Ascencio Alquisiras</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -950,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>San Francisco Logueche</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Chalchicomula De Sesma</t>
@@ -1059,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Chilchotla</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Juan C. Bonilla</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Ocoyucan</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1150,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -1163,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tlapanalá</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Xiutetelco</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1251,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -1264,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -1277,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -1290,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1321,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1352,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -1365,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -1378,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -1391,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -1404,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -1417,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1430,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Total</t>
